--- a/Financial_Sample.xlsx
+++ b/Financial_Sample.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P702"/>
+  <dimension ref="A1:P703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42345,6 +42345,44 @@
         <v>1409625</v>
       </c>
     </row>
+    <row r="703">
+      <c r="A703" t="inlineStr"/>
+      <c r="B703" t="inlineStr"/>
+      <c r="C703" t="inlineStr"/>
+      <c r="D703" t="inlineStr"/>
+      <c r="E703" t="n">
+        <v>2251612</v>
+      </c>
+      <c r="F703" t="n">
+        <v>135068</v>
+      </c>
+      <c r="G703" t="n">
+        <v>165800</v>
+      </c>
+      <c r="H703" t="n">
+        <v>255863197</v>
+      </c>
+      <c r="I703" t="n">
+        <v>18410496.48</v>
+      </c>
+      <c r="J703" t="n">
+        <v>237452700.52</v>
+      </c>
+      <c r="K703" t="n">
+        <v>203665296</v>
+      </c>
+      <c r="L703" t="n">
+        <v>33787404.52</v>
+      </c>
+      <c r="M703" t="inlineStr"/>
+      <c r="N703" t="n">
+        <v>11060</v>
+      </c>
+      <c r="O703" t="inlineStr"/>
+      <c r="P703" t="n">
+        <v>2819250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
